--- a/data/trans_dic/P69$agotado-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69$agotado-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5377167176663833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4548022659302928</v>
+        <v>0.454802265930293</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.378377755120513</v>
@@ -685,7 +685,7 @@
         <v>0.4413676509210656</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4119817604886767</v>
+        <v>0.4119817604886766</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3549376601052115</v>
@@ -697,7 +697,7 @@
         <v>0.5141228537078788</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4378194666561128</v>
+        <v>0.4378194666561129</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2524881516558253</v>
+        <v>0.2540632873965759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1431026431172813</v>
+        <v>0.1417604889812387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3983424510940378</v>
+        <v>0.4011137984954612</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2823552861478861</v>
+        <v>0.3038286948604403</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2287542659510868</v>
+        <v>0.234616586134545</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1617901674002891</v>
+        <v>0.1683785159360013</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.221362023119836</v>
+        <v>0.2205059837242121</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2424429903823497</v>
+        <v>0.2386743131658975</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2808451598617264</v>
+        <v>0.2781906290018089</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1822673342233993</v>
+        <v>0.1800306402321969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4003161180352548</v>
+        <v>0.3888754465271931</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3168835501594061</v>
+        <v>0.3051711573560497</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4464871413847473</v>
+        <v>0.4471662605120517</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3832743343838093</v>
+        <v>0.3758775291144184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6839247835975119</v>
+        <v>0.6833091347197388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6244334137858114</v>
+        <v>0.631721178264283</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5490697284946557</v>
+        <v>0.5367711819824909</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4507139027881628</v>
+        <v>0.4867858022859013</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7064695514473032</v>
+        <v>0.7131650985684063</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5958819365195777</v>
+        <v>0.5848159828707769</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4374291483405632</v>
+        <v>0.4353152588395299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3643184421821057</v>
+        <v>0.3582478273382277</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6235176012519694</v>
+        <v>0.6246124564235614</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5634693385086925</v>
+        <v>0.5629131076128493</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3918034027582775</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3768908147160548</v>
+        <v>0.3768908147160546</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.256993923987936</v>
+        <v>0.2553281785580039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1904441649848084</v>
+        <v>0.1869407601736535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3074637284499074</v>
+        <v>0.3162040510166244</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2810229308627222</v>
+        <v>0.277597822977279</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2390890317507854</v>
+        <v>0.2390357804236981</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2980185103711731</v>
+        <v>0.2983383382414425</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.342087437275646</v>
+        <v>0.3372540128800812</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.361543563203958</v>
+        <v>0.3587883298488388</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2714947046273617</v>
+        <v>0.2666669848204505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2492771209378395</v>
+        <v>0.2471972295389096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.339186178821325</v>
+        <v>0.3435965797107577</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3343954372934398</v>
+        <v>0.3332494355145396</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3683539675721481</v>
+        <v>0.3749580765900889</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3110391495966541</v>
+        <v>0.3051671884545801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4439530347647421</v>
+        <v>0.437881252376416</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4069477786729318</v>
+        <v>0.4093677088232274</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4130197484902231</v>
+        <v>0.4172428479833494</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4792544929868885</v>
+        <v>0.4722372218000789</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5144469367961997</v>
+        <v>0.5130120325869745</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4766821338980336</v>
+        <v>0.4782073007009951</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3655554507750465</v>
+        <v>0.3683015732367781</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3458565324187383</v>
+        <v>0.3476056129700731</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4486279749706862</v>
+        <v>0.44273052079828</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4221590578768544</v>
+        <v>0.4193514183006349</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3052011279277991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3999833018870163</v>
+        <v>0.3999833018870164</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2367539954150207</v>
@@ -969,7 +969,7 @@
         <v>0.3531579388493506</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4306748998880677</v>
+        <v>0.4306748998880676</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1990206385583645</v>
+        <v>0.2032472647791741</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1068909664734728</v>
+        <v>0.1060097822387268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1871833369741195</v>
+        <v>0.1946497499798043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2769462127873493</v>
+        <v>0.271108256000172</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1337253832531796</v>
+        <v>0.1469493587143026</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1753602283224599</v>
+        <v>0.176046309202638</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2719902429385598</v>
+        <v>0.2815943032212941</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3619275690712375</v>
+        <v>0.3779557320340831</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1939046994838295</v>
+        <v>0.1971649260748323</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1576331391060516</v>
+        <v>0.1577621382523348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2674600628253022</v>
+        <v>0.2669556306206839</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3537599127373078</v>
+        <v>0.3581331252436157</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4101325932588139</v>
+        <v>0.4176794839538087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3553778067650649</v>
+        <v>0.3456778148337982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4337784489976136</v>
+        <v>0.4539449920552673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5516847293855841</v>
+        <v>0.550143827604769</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3648565235273761</v>
+        <v>0.3630253181292096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4665111934352183</v>
+        <v>0.4746568634255773</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5157146736519435</v>
+        <v>0.5238684098414325</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5391495836711641</v>
+        <v>0.54408898415573</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3504120158543862</v>
+        <v>0.3519682786401689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3668305316286477</v>
+        <v>0.3471242112841181</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4451831018524623</v>
+        <v>0.4423000993246576</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.514549626041651</v>
+        <v>0.5155170353246195</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1920542138583491</v>
+        <v>0.1963197147665241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3320400860838325</v>
+        <v>0.3366330653110662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3107888470987639</v>
+        <v>0.3092295950155105</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3822037846666448</v>
+        <v>0.3807725212676534</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2408768986439808</v>
+        <v>0.2449417127190754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3582016899958283</v>
+        <v>0.3564664627062321</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3565557478143702</v>
+        <v>0.3575682746956856</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.28603561404289</v>
+        <v>0.2930959265580741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4391566367143241</v>
+        <v>0.4389072826984182</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.426835861434286</v>
+        <v>0.4207270116915774</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4779292400764725</v>
+        <v>0.479448876827059</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3226973159457748</v>
+        <v>0.3262658779131574</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4382681065084741</v>
+        <v>0.4405005955612213</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4323039399218752</v>
+        <v>0.4320932090186855</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27891</v>
+        <v>28065</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8258</v>
+        <v>8180</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22140</v>
+        <v>22294</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10029</v>
+        <v>10791</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8594</v>
+        <v>8814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6138</v>
+        <v>6387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3990</v>
+        <v>3974</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5660</v>
+        <v>5572</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>41574</v>
+        <v>41181</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17432</v>
+        <v>17218</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29465</v>
+        <v>28623</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>18653</v>
+        <v>17964</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49321</v>
+        <v>49396</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22116</v>
+        <v>21690</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38013</v>
+        <v>37979</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22179</v>
+        <v>22437</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20627</v>
+        <v>20165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17098</v>
+        <v>18466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12733</v>
+        <v>12854</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13911</v>
+        <v>13653</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>64754</v>
+        <v>64441</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34843</v>
+        <v>34262</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45894</v>
+        <v>45975</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33168</v>
+        <v>33135</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>73743</v>
+        <v>73265</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>41812</v>
+        <v>41043</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>70236</v>
+        <v>72233</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74410</v>
+        <v>73503</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28349</v>
+        <v>28343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>38868</v>
+        <v>38910</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>42612</v>
+        <v>42010</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>79343</v>
+        <v>78738</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>110095</v>
+        <v>108137</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>87241</v>
+        <v>86513</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>119733</v>
+        <v>121290</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>161927</v>
+        <v>161372</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>105697</v>
+        <v>107592</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>68289</v>
+        <v>67000</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>101415</v>
+        <v>100028</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107752</v>
+        <v>108393</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>48972</v>
+        <v>49473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>62505</v>
+        <v>61590</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64082</v>
+        <v>63903</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>104611</v>
+        <v>104945</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>148238</v>
+        <v>149352</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>121041</v>
+        <v>121653</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>158367</v>
+        <v>156285</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>204425</v>
+        <v>203065</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14742</v>
+        <v>15056</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4926</v>
+        <v>4886</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11717</v>
+        <v>12184</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21294</v>
+        <v>20846</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8556</v>
+        <v>9402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8123</v>
+        <v>8155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20048</v>
+        <v>20756</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35568</v>
+        <v>37143</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26770</v>
+        <v>27220</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14567</v>
+        <v>14579</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>36455</v>
+        <v>36387</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61966</v>
+        <v>62732</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30381</v>
+        <v>30940</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16379</v>
+        <v>15932</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27152</v>
+        <v>28414</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42419</v>
+        <v>42301</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23345</v>
+        <v>23227</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21609</v>
+        <v>21987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38012</v>
+        <v>38613</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52984</v>
+        <v>53469</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48377</v>
+        <v>48592</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>33899</v>
+        <v>32078</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>60679</v>
+        <v>60286</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>90131</v>
+        <v>90300</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>62100</v>
+        <v>63479</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>115089</v>
+        <v>116681</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>117226</v>
+        <v>116638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>130360</v>
+        <v>129872</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>129597</v>
+        <v>131784</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>201635</v>
+        <v>200658</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>256102</v>
+        <v>256829</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>92488</v>
+        <v>94771</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>152217</v>
+        <v>152130</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>160998</v>
+        <v>158694</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>163010</v>
+        <v>163528</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>173619</v>
+        <v>175539</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>246705</v>
+        <v>247962</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>310509</v>
+        <v>310357</v>
       </c>
     </row>
     <row r="20">
